--- a/dane_kutno/Staniny2.xlsx
+++ b/dane_kutno/Staniny2.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD8F43B-0DE0-42C1-825C-CB2A5145745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F57B4C-4DCB-414B-B557-9D5AC0E6C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="2022" sheetId="2" r:id="rId2"/>
+    <sheet name="2023" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -460,6 +460,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,7 +476,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,54 +1274,54 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O39" s="12" t="s">
+      <c r="O39" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="P39" s="12" t="s">
+      <c r="P39" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Q39" s="12" t="s">
+      <c r="Q39" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R39" s="12" t="s">
+      <c r="R39" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S39" s="12" t="s">
+      <c r="S39" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1774,54 +1774,54 @@
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B49" s="8">
+      <c r="B49" s="9">
         <v>2023</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O49" s="12" t="s">
+      <c r="O49" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="P49" s="12" t="s">
+      <c r="P49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Q49" s="12" t="s">
+      <c r="Q49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R49" s="12" t="s">
+      <c r="R49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S49" s="12" t="s">
+      <c r="S49" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2327,16 +2327,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2344,16 +2344,16 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2361,16 +2361,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2378,16 +2378,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2395,16 +2395,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2412,16 +2412,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2429,16 +2429,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2446,16 +2446,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2463,16 +2463,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2520,16 +2520,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2537,16 +2537,16 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2554,16 +2554,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2571,16 +2571,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2588,16 +2588,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2605,16 +2605,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2622,16 +2622,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2639,16 +2639,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2656,16 +2656,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2676,31 +2676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="56aace9d-0078-436c-b0cd-e391ea787757" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Hiper_x0142__x0105_cze xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Hiper_x0142__x0105_cze>
-    <_Flow_SignoffStatus xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009549D3D9FEC9DE498E1599B9F0A8918F" ma:contentTypeVersion="19" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="78cfe45a98f6f8a08d9adbbdf448870a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cee2f711-3d12-493e-b67a-49f03a45d6c8" xmlns:ns3="56aace9d-0078-436c-b0cd-e391ea787757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54176b28e2aadeb7763e6d52ed310cb3" ns2:_="" ns3:_="">
     <xsd:import namespace="cee2f711-3d12-493e-b67a-49f03a45d6c8"/>
@@ -2968,26 +2943,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B368F8-A3C8-4B2D-B6AF-723AEC792D51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="56aace9d-0078-436c-b0cd-e391ea787757"/>
-    <ds:schemaRef ds:uri="cee2f711-3d12-493e-b67a-49f03a45d6c8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D5ECF7-BF0E-4B94-B0E1-18B55FC03647}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="56aace9d-0078-436c-b0cd-e391ea787757" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Hiper_x0142__x0105_cze xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Hiper_x0142__x0105_cze>
+    <_Flow_SignoffStatus xmlns="cee2f711-3d12-493e-b67a-49f03a45d6c8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC550F0C-8118-4290-A154-47C488345BCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3004,4 +2985,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D5ECF7-BF0E-4B94-B0E1-18B55FC03647}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B368F8-A3C8-4B2D-B6AF-723AEC792D51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="56aace9d-0078-436c-b0cd-e391ea787757"/>
+    <ds:schemaRef ds:uri="cee2f711-3d12-493e-b67a-49f03a45d6c8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>